--- a/acu.xlsx
+++ b/acu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26560" windowHeight="13260"/>
+    <workbookView windowWidth="26740" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <t>faculty</t>
   </si>
   <si>
-    <t>CourseName</t>
+    <t>Course_Name</t>
   </si>
   <si>
     <t>degree</t>
@@ -28,7 +28,7 @@
     <t>ATAR</t>
   </si>
   <si>
-    <t>URL</t>
+    <t>href</t>
   </si>
   <si>
     <t>location</t>
@@ -5106,38 +5106,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5152,14 +5145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5181,6 +5167,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -5196,7 +5197,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5212,38 +5235,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5258,7 +5258,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5270,13 +5408,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5288,157 +5438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5469,10 +5469,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5520,15 +5518,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -5564,148 +5553,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5713,12 +5713,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6068,7 +6069,7 @@
   <dimension ref="A1:N360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -6165,7 +6166,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
@@ -6446,7 +6447,7 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F10" t="s">
